--- a/registros.xlsx
+++ b/registros.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,21 +537,41 @@
           <t>Matricula</t>
         </is>
       </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Gerente</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Responsavel</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-6 - Amigo Anjo</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>75</t>
+          <t>15 - Tempo Logado</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>30</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Meta AeC</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Operação</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Ônus e Bônus</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>6x1</t>
@@ -564,7 +584,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Percentual</t>
+          <t>Hora</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -574,7 +594,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -587,26 +607,56 @@
           <t>Diário</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>nenhuma</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>2025-10-07, 2025-10-08, 2025-10-09</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>PREMIUM - AGIBANK SAC - AGIBANK_SAC - CG</t>
+          <t>NET - NET COMBO MULTI - NET_CM_N1 - CG</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>280581</t>
+          <t>216244</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>JOAO MARCOS NOGUEIRA DE SOUSA</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>julhin</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-9 - Nota da prova</t>
+          <t>-5 - Desafio</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -617,11 +667,6 @@
       <c r="C3" t="n">
         <v>30</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>6x1</t>
@@ -634,49 +679,292 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>Percentual</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>OPERAÇÃO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Diário</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>PREMIUM - AGIBANK SAC - AGIBANK_SAC - CG</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>280581</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>CARLOS ALBERTO MARTINS ZARZUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>16 - Erros Operacionais</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>6x1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>Inteiro</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Operacional</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>OPERAÇÃO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>Diário</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>PREMIUM - BRADESCARD ATENDIMENTO P2 - AMAZON - JP3</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>119807</t>
-        </is>
-      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>PREMIUM - AGIBANK SAC - AGIBANK_SAC - CG</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>280581</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>CARLOS ALBERTO MARTINS ZARZUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>-5 - Desafio</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>6x1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Percentual</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>OPERAÇÃO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Diário</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>PREMIUM - AGIBANK SAC - AGIBANK_SAC - CG</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>280581</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>CARLOS ALBERTO MARTINS ZARZUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15 - Tempo Logado</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>6x1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Hora</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>OPERAÇÃO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Diário</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>PREMIUM - AGIBANK SAC - AGIBANK_SAC - CG</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>280581</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>CARLOS ALBERTO MARTINS ZARZUR</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5 - % Cancelamento</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>6x1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Percentual</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>OPERAÇÃO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Diário</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>PREMIUM - AGIBANK SAC - AGIBANK_SAC - CG</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>280581</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>CARLOS ALBERTO MARTINS ZARZUR</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/registros.xlsx
+++ b/registros.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -834,15 +834,9 @@
           <t>15 - Tempo Logado</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>6x1</t>
@@ -858,8 +852,6 @@
           <t>Hora</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>OPERAÇÃO</t>
@@ -870,16 +862,11 @@
           <t>Diário</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
           <t>PREMIUM - AGIBANK SAC - AGIBANK_SAC - CG</t>
@@ -895,7 +882,6 @@
           <t>CARLOS ALBERTO MARTINS ZARZUR</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -903,15 +889,9 @@
           <t>5 - % Cancelamento</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>6x1</t>
@@ -927,8 +907,6 @@
           <t>Percentual</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>OPERAÇÃO</t>
@@ -939,16 +917,11 @@
           <t>Diário</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr">
         <is>
           <t>PREMIUM - AGIBANK SAC - AGIBANK_SAC - CG</t>
@@ -964,7 +937,348 @@
           <t>CARLOS ALBERTO MARTINS ZARZUR</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>-5 - Desafio</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Meta AeC</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Planejamento</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ônus e Bônus</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>6x1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Percentual</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>OPERAÇÃO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Diário</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>nenhuma</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>2025-10-01, 2025-10-02, 2025-10-03, 2025-10-04, 2025-10-05</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>PREMIUM - AGIBANK SAC - AGIBANK_SAC - CG</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>280581</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>CARLOS ALBERTO MARTINS ZARZUR</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>julhin</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14 - Valor Recuperado | Semanal</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Meta AeC</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Planejamento</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ônus e Bônus</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>6x1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Inteiro</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>OPERAÇÃO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>nenhuma</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>2025-10-01, 2025-10-02, 2025-10-03, 2025-10-04, 2025-10-05</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>PREMIUM - AGIBANK SAC - AGIBANK_SAC - CG</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>280581</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>CARLOS ALBERTO MARTINS ZARZUR</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>julhin</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>26 - % HSAT 4+5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Meta AeC</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Planejamento</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ônus e Bônus</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>6x1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Percentual</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>OPERAÇÃO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Diário</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>nenhuma</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>2025-10-01, 2025-10-02, 2025-10-03, 2025-10-04, 2025-10-05</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>PREMIUM - AGIBANK SAC - AGIBANK_SAC - CG</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>280581</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>CARLOS ALBERTO MARTINS ZARZUR</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>julhin</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
